--- a/DateBase/orders/Dang Nguyen_2025-7-8.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-8.xlsx
@@ -858,6 +858,9 @@
       <c r="C50" t="str">
         <v>479_绿灵草_lepidium_undefined_1bunch</v>
       </c>
+      <c r="F50" t="str">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -919,7 +922,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01089610811067555551525514188445185555510355553515105553351010150</v>
+        <v>01089610811067555551525514188445185555510355553515105553351010157</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-8.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-8.xlsx
@@ -924,6 +924,9 @@
       <c r="G2" t="str">
         <v>01089610811067555551525514188445185555510355553515105553351010157</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
